--- a/excel/addareturndata.xlsx
+++ b/excel/addareturndata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>11151988</v>
+        <v>11051980</v>
       </c>
       <c r="C4">
         <v>3</v>
